--- a/biology/Médecine/Hôpital_d'enfants_Béchir-Hamza/Hôpital_d'enfants_Béchir-Hamza.xlsx
+++ b/biology/Médecine/Hôpital_d'enfants_Béchir-Hamza/Hôpital_d'enfants_Béchir-Hamza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_d%27enfants_B%C3%A9chir-Hamza</t>
+          <t>Hôpital_d'enfants_Béchir-Hamza</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'hôpital d'enfants Béchir-Hamza ou hôpital d'enfants de Bab Saadoun, est un établissement de santé publique tunisien situé sur le boulevard du 9-Avril 1938 dans le quartier de Bab Saadoun à Tunis, à proximité de l'Institut Hédi-Raïs d'ophtalmologie de Tunis, de l'Institut Salah-Azaïz[1] et du ministère de la Santé.
-Cet hôpital pour enfants est baptisé en 2011 en hommage au père de la pédiatrie en Tunisie, le professeur Béchir Hamza[2].
-Il est spécialisé en pédiatrie et chirurgie pédiatrique. En 2015, un service de réanimation chirurgicale est inauguré[3].
+L'hôpital d'enfants Béchir-Hamza ou hôpital d'enfants de Bab Saadoun, est un établissement de santé publique tunisien situé sur le boulevard du 9-Avril 1938 dans le quartier de Bab Saadoun à Tunis, à proximité de l'Institut Hédi-Raïs d'ophtalmologie de Tunis, de l'Institut Salah-Azaïz et du ministère de la Santé.
+Cet hôpital pour enfants est baptisé en 2011 en hommage au père de la pédiatrie en Tunisie, le professeur Béchir Hamza.
+Il est spécialisé en pédiatrie et chirurgie pédiatrique. En 2015, un service de réanimation chirurgicale est inauguré.
 </t>
         </is>
       </c>
